--- a/ocms/src/test/resources/TestData/CallWorkReportData.xlsx
+++ b/ocms/src/test/resources/TestData/CallWorkReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D2C08-C31F-4243-8976-94528A5A0A95}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF1F09-6176-4668-B9A9-3B3AC01D0FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="579" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
   <si>
     <t>Report Channel</t>
   </si>
@@ -45,9 +47,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -58,6 +57,135 @@
   </si>
   <si>
     <t>Call Work Report</t>
+  </si>
+  <si>
+    <t>25-06-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>24-06-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>26-06-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Avaya Login Id</t>
+  </si>
+  <si>
+    <t>Amitha</t>
+  </si>
+  <si>
+    <t>Amitha Maithry</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Report Name1</t>
+  </si>
+  <si>
+    <t>Workcode Report</t>
+  </si>
+  <si>
+    <t>25-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>24-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t>SELECT cm.WorkCodeName as [WorkcodeDesc], cm.WorkCode Workcode,ISNULL(agt.FirstName,'') +' '+ ISNULL(agt.LastName,'') 
+as [Agent Name],agt.AvayaLoginID as [Avaya Login Id],COUNT(agt.AvayaLoginID) as [Count] from AGT_Agent agt with (nolock) 
+INNER JOIN GBL_CallWorkCodes cwc with (nolock)  on agt.AvayaLoginID =cwc.AgentID
+left join AGT_InboundACD_Calls inb with (nolock) on cwc.SessionID = inb.UCID
+INNER JOIN GBL_CallWorkCodeMapping cm with (nolock) on cwc.WorkCode = cm.WorkCode 
+WHERE cwc.InsertDate+cwc.InsertTime &gt;= 'ReportBeforeDate' and cwc.InsertDate+cwc.InsertTime &lt;= 'ReportAfterDate'
+GROUP BY agt.AvayaLoginID, agt.FirstName,agt.LastName,cwc.WorkCode,cm.WorkCode,cm.WorkCodeName
+ORDER BY cwc.WorkCode;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select ISNULL(agt.FirstName,'') +' '+ ISNULL(agt.LastName,'') as AgentName,
+FORMAT([dbo].[VARCHARTODATETIME] (cwc.InsertDate+cwc.InsertTime),'dd/MM/yyyy HH:mm:ss')as [Date Time],
+  cwc.CallerID as [Caller ID],isnull(inb.Queue,'') as [Queue]
+  from GBL_CallWorkCodes cwc with (nolock) 
+  INNER JOIN GBL_CallWorkCodeMapping cm with (nolock) on cwc.WorkCode = cm.WorkCode
+  INNER JOIN AGT_Agent agt with (nolock) on agt.AvayaLoginID =cwc.AgentID
+  left join AGT_InboundACD_Calls inb with (nolock) on cwc.SessionID = inb.UCID
+  WHERE cwc.WorkCode = 'WorkCodeCapturedFromUI'
+  AND cwc.InsertDate+cwc.InsertTime &gt;= 'ReportBeforeDate' and cwc.InsertDate+cwc.InsertTime &lt;= 'ReportAfterDate' 
+  and agt.AvayaLoginID='AgentIdCapturedFromUI'
+  ORDER BY cm.WorkCode;
+</t>
+  </si>
+  <si>
+    <t>WorkcodeDesc</t>
+  </si>
+  <si>
+    <t>01-09-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>DeptA</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -93,9 +221,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,19 +516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,18 +542,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -425,22 +563,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,27 +593,196 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -480,21 +791,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,18 +819,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -528,22 +839,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,27 +865,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -583,22 +894,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,19 +922,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -632,22 +949,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,27 +976,199 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D5:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
